--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,12 @@
     <sheet name="20.04" sheetId="5" r:id="rId3"/>
     <sheet name="22.04" sheetId="4" r:id="rId4"/>
     <sheet name="24.04" sheetId="7" r:id="rId5"/>
+    <sheet name="26.04" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'24.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.04'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -73,9 +75,6 @@
     <t>Façade design pattern</t>
   </si>
   <si>
-    <t>Adapter design pattern</t>
-  </si>
-  <si>
     <t>Remote observer d.p.</t>
   </si>
   <si>
@@ -142,18 +141,9 @@
     <t>Create client GUI</t>
   </si>
   <si>
-    <t>Implement façade design pattern</t>
-  </si>
-  <si>
     <t xml:space="preserve">Document façade </t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>Documentation of Client-Server</t>
-  </si>
-  <si>
     <t>Krzysztof</t>
   </si>
   <si>
@@ -169,10 +159,46 @@
     <t>Marek, Stela</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement proxy design pattern </t>
-  </si>
-  <si>
     <t>Andreea</t>
+  </si>
+  <si>
+    <t>Start documentation of Client-Server</t>
+  </si>
+  <si>
+    <t>After connecting client to server, current trip list is displayed</t>
+  </si>
+  <si>
+    <t>Show current trip list</t>
+  </si>
+  <si>
+    <t>Implement displaying trip list</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Customer wants iterator design pattern</t>
+  </si>
+  <si>
+    <t>Proxy design pattern</t>
+  </si>
+  <si>
+    <t>Iterator design pattern</t>
+  </si>
+  <si>
+    <t>Implement iterator design pattern</t>
+  </si>
+  <si>
+    <t>Document iterator</t>
+  </si>
+  <si>
+    <t>Implement proxy design pattern</t>
+  </si>
+  <si>
+    <t>Document proxy</t>
+  </si>
+  <si>
+    <t>Started</t>
   </si>
 </sst>
 </file>
@@ -380,7 +406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$10</c:f>
+              <c:f>'Burndown Chart'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -444,36 +470,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$10:$J$10</c:f>
+              <c:f>'Burndown Chart'!$B$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +516,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$11</c:f>
+              <c:f>'Burndown Chart'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -554,33 +580,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$11:$J$11</c:f>
+              <c:f>'Burndown Chart'!$B$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>57</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49.875</c:v>
+                  <c:v>55.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.75</c:v>
+                  <c:v>47.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.625</c:v>
+                  <c:v>39.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.375</c:v>
+                  <c:v>23.625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.25</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.125</c:v>
+                  <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>0</c:v>
@@ -1340,13 +1366,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1672,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,10 +1774,10 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -1762,16 +1788,16 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="5">
-        <f t="shared" ref="K3:K7" si="0">SUM(C3:J3)</f>
+        <f t="shared" ref="K3:K9" si="0">SUM(C3:J3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1788,10 +1814,10 @@
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1808,14 +1834,17 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <f>B6</f>
+        <v>3</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1823,15 +1852,15 @@
       <c r="J6" s="6"/>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1848,15 +1877,13 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1864,97 +1891,139 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="5">
-        <f>SUM(C8:J8)</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5">
+        <f t="shared" ref="K3:K10" si="1">SUM(C10:J10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5">
-        <f>SUM(B2:B8)</f>
-        <v>57</v>
-      </c>
-      <c r="C10" s="5">
-        <f>B10-(SUM(C2:C8))</f>
-        <v>57</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:J10" si="1">C10-(SUM(D2:D8))</f>
-        <v>55</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="G10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="5">
+        <f>SUM(B2:B10)</f>
+        <v>63</v>
+      </c>
+      <c r="C12" s="5">
+        <f>B12-(SUM(C2:C10))</f>
+        <v>63</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:J12" si="2">C12-(SUM(D2:D10))</f>
+        <v>61</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
-        <f>SUM(B2:B8)</f>
-        <v>57</v>
-      </c>
-      <c r="C11" s="7">
-        <f>B11-($B$11/8)</f>
-        <v>49.875</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" ref="D11:I11" si="2">C11-($B$11/8)</f>
-        <v>42.75</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="2"/>
-        <v>35.625</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="2"/>
-        <v>28.5</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>21.375</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>14.25</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="2"/>
-        <v>7.125</v>
-      </c>
-      <c r="J11" s="5">
-        <f>I11-($B$11/8)</f>
+      <c r="B13" s="5">
+        <f>SUM(B2:B10)</f>
+        <v>63</v>
+      </c>
+      <c r="C13" s="7">
+        <f>B13-($B$13/8)</f>
+        <v>55.125</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" ref="D13:I13" si="3">C13-($B$13/8)</f>
+        <v>47.25</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="3"/>
+        <v>39.375</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="3"/>
+        <v>23.625</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="3"/>
+        <v>15.75</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>7.875</v>
+      </c>
+      <c r="J13" s="5">
+        <f>I13-($B$13/8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1964,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,11 +2061,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">A2+1</f>
+        <f t="shared" ref="A3:A12" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>'Burndown Chart'!B2</f>
@@ -2012,14 +2081,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <f>'Burndown Chart'!B3</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,14 +2097,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <f>'Burndown Chart'!B6</f>
-        <v>28</v>
+        <f>'Burndown Chart'!B4</f>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,14 +2113,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <f>'Burndown Chart'!B8</f>
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6">
-        <f>'Burndown Chart'!B5</f>
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2060,14 +2129,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <f>'Burndown Chart'!B4</f>
-        <v>3</v>
+        <f>'Burndown Chart'!B7</f>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,14 +2145,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <f>'Burndown Chart'!B6/4</f>
-        <v>7</v>
+        <f>'Burndown Chart'!B6</f>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,14 +2161,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <f>'Burndown Chart'!B7</f>
+        <f>'Burndown Chart'!B5</f>
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,14 +2177,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <f>'Burndown Chart'!B8/4</f>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <f>'Burndown Chart'!B9</f>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <f>'Burndown Chart'!B10</f>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C10">
-        <f>'Burndown Chart'!B8</f>
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2145,22 +2246,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2274,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:F2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,22 +2289,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,16 +2315,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,16 +2335,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2254,36 +2355,36 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2397,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,42 +2412,205 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,96 +2621,36 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Started</t>
+  </si>
+  <si>
+    <t>Start implementing oberver design</t>
+  </si>
+  <si>
+    <t>Finish Client-Server documentation</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1939,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="5">
-        <f t="shared" ref="K3:K10" si="1">SUM(C10:J10)</f>
+        <f t="shared" ref="K10" si="1">SUM(C10:J10)</f>
         <v>2</v>
       </c>
     </row>
@@ -2397,7 +2403,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2510,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -2557,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2610,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,6 +2657,46 @@
       </c>
       <c r="F4" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -18,11 +18,13 @@
     <sheet name="22.04" sheetId="4" r:id="rId4"/>
     <sheet name="24.04" sheetId="7" r:id="rId5"/>
     <sheet name="26.04" sheetId="9" r:id="rId6"/>
+    <sheet name="28.04" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'24.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'28.04'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -87,9 +89,6 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>Customer wants remote observer design pattern</t>
-  </si>
-  <si>
     <t>Customer wants façade design pattern</t>
   </si>
   <si>
@@ -205,6 +204,12 @@
   </si>
   <si>
     <t>Finish Client-Server documentation</t>
+  </si>
+  <si>
+    <t>List of Trips on client side</t>
+  </si>
+  <si>
+    <t>Customer wants observer design pattern</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1712,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,7 +1785,7 @@
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5">
         <v>3</v>
@@ -1800,7 +1805,7 @@
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -1840,7 +1845,7 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
@@ -1863,7 +1868,7 @@
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -2042,7 +2047,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,7 +2131,7 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2158,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2206,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,14 +2220,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <f>'Burndown Chart'!B10</f>
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2252,22 +2257,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2295,22 +2300,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,16 +2326,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,16 +2346,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,16 +2366,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,16 +2386,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2418,22 +2423,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2444,16 +2449,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,16 +2469,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,16 +2489,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,16 +2509,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,16 +2529,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2544,16 +2549,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2571,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,22 +2586,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2607,16 +2612,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,16 +2632,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2647,16 +2652,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,16 +2672,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2687,16 +2692,59 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -9,22 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
-    <sheet name="20.04" sheetId="5" r:id="rId3"/>
-    <sheet name="22.04" sheetId="4" r:id="rId4"/>
-    <sheet name="24.04" sheetId="7" r:id="rId5"/>
-    <sheet name="26.04" sheetId="9" r:id="rId6"/>
-    <sheet name="28.04" sheetId="10" r:id="rId7"/>
+    <sheet name="22.04" sheetId="4" r:id="rId3"/>
+    <sheet name="24.04" sheetId="7" r:id="rId4"/>
+    <sheet name="26.04" sheetId="9" r:id="rId5"/>
+    <sheet name="28.04" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'24.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'28.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'22.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'24.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'28.04'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -83,9 +82,6 @@
     <t>MVC design pattern</t>
   </si>
   <si>
-    <t>Customer require to test remote observer</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
@@ -110,69 +106,30 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Client server class diagram</t>
-  </si>
-  <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Implement server connection using sockets</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Test server connection</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
     <t>Different GUI on client computers</t>
   </si>
   <si>
-    <t>Create client GUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document façade </t>
-  </si>
-  <si>
     <t>Krzysztof</t>
   </si>
   <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Client-Server class diagram</t>
-  </si>
-  <si>
-    <t>Simple implementation of remote observer</t>
-  </si>
-  <si>
     <t>Marek, Stela</t>
   </si>
   <si>
     <t>Andreea</t>
   </si>
   <si>
-    <t>Start documentation of Client-Server</t>
-  </si>
-  <si>
     <t>After connecting client to server, current trip list is displayed</t>
   </si>
   <si>
-    <t>Show current trip list</t>
-  </si>
-  <si>
-    <t>Implement displaying trip list</t>
-  </si>
-  <si>
     <t>Marek</t>
   </si>
   <si>
@@ -185,31 +142,118 @@
     <t>Iterator design pattern</t>
   </si>
   <si>
-    <t>Implement iterator design pattern</t>
-  </si>
-  <si>
-    <t>Document iterator</t>
-  </si>
-  <si>
-    <t>Implement proxy design pattern</t>
-  </si>
-  <si>
-    <t>Document proxy</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Start implementing oberver design</t>
-  </si>
-  <si>
-    <t>Finish Client-Server documentation</t>
-  </si>
-  <si>
-    <t>List of Trips on client side</t>
-  </si>
-  <si>
     <t>Customer wants observer design pattern</t>
+  </si>
+  <si>
+    <t>Implement server classes</t>
+  </si>
+  <si>
+    <t>Implement client side</t>
+  </si>
+  <si>
+    <t>Test connecting to the server</t>
+  </si>
+  <si>
+    <t>Design Client-Server architecture</t>
+  </si>
+  <si>
+    <t>Document Client-Server architecture</t>
+  </si>
+  <si>
+    <t>Create client side GUI</t>
+  </si>
+  <si>
+    <t>Implement Iterator design pattern</t>
+  </si>
+  <si>
+    <t>Test Iterator design pattern</t>
+  </si>
+  <si>
+    <t>Document Iterator design pattern</t>
+  </si>
+  <si>
+    <t>Implement Façade design pattern</t>
+  </si>
+  <si>
+    <t>Test Façade design pattern</t>
+  </si>
+  <si>
+    <t>Documennt Façade design pattern</t>
+  </si>
+  <si>
+    <t>Implement Observer design pattern</t>
+  </si>
+  <si>
+    <t>Test Observer design pattern</t>
+  </si>
+  <si>
+    <t>Document Observer design pattern</t>
+  </si>
+  <si>
+    <t>Display updated trip list on client GUI</t>
+  </si>
+  <si>
+    <t>Create packages for MVC design pattern</t>
+  </si>
+  <si>
+    <t>Update controller classes to folow MVC</t>
+  </si>
+  <si>
+    <t>Test MVC design pattern</t>
+  </si>
+  <si>
+    <t>Document MVC design pattern</t>
+  </si>
+  <si>
+    <t>Implement Proxy design pattern</t>
+  </si>
+  <si>
+    <t>Test Proxy design pattern</t>
+  </si>
+  <si>
+    <t>Document Proxy design pattern</t>
+  </si>
+  <si>
+    <t>Update previous documentations to follow MVC</t>
+  </si>
+  <si>
+    <t>Fix sending and displaying updated trip list</t>
+  </si>
+  <si>
+    <t>Send trip list to client when connected</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Customer require to test observer</t>
+  </si>
+  <si>
+    <t>Customer wants singleton design pattern</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Stela</t>
+  </si>
+  <si>
+    <t>Show trip list when connected</t>
+  </si>
+  <si>
+    <t>Display triplist in GUI on update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek </t>
+  </si>
+  <si>
+    <t>General documenntation of MVC</t>
   </si>
 </sst>
 </file>
@@ -446,34 +490,31 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$1:$J$1</c:f>
+              <c:f>'Burndown Chart'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20-04-17</c:v>
+                  <c:v>22-04-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22-04-17</c:v>
+                  <c:v>24-04-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-04-17</c:v>
+                  <c:v>26-04-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-04-17</c:v>
+                  <c:v>28-04-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28-04-17</c:v>
+                  <c:v>01-05-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01-05-17</c:v>
+                  <c:v>03-05-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03-05-17</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -481,36 +522,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$12:$J$12</c:f>
+              <c:f>'Burndown Chart'!$B$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,34 +594,31 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burndown Chart'!$B$1:$J$1</c:f>
+              <c:f>'Burndown Chart'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20-04-17</c:v>
+                  <c:v>22-04-17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22-04-17</c:v>
+                  <c:v>24-04-17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24-04-17</c:v>
+                  <c:v>26-04-17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-04-17</c:v>
+                  <c:v>28-04-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28-04-17</c:v>
+                  <c:v>01-05-17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>01-05-17</c:v>
+                  <c:v>03-05-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>03-05-17</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>05-05-17</c:v>
                 </c:pt>
               </c:strCache>
@@ -591,35 +626,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$13:$J$13</c:f>
+              <c:f>'Burndown Chart'!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>63</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.125</c:v>
+                  <c:v>51.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.25</c:v>
+                  <c:v>42.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.375</c:v>
+                  <c:v>34.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.5</c:v>
+                  <c:v>25.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.625</c:v>
+                  <c:v>17.142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.75</c:v>
+                  <c:v>8.5714285714285818</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.875</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1381,7 +1413,7 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -1709,66 +1741,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4">
-        <v>42845</v>
+        <v>42847</v>
       </c>
       <c r="D1" s="4">
-        <v>42847</v>
+        <v>42849</v>
       </c>
       <c r="E1" s="4">
-        <v>42849</v>
+        <v>42851</v>
       </c>
       <c r="F1" s="4">
-        <v>42851</v>
+        <v>42853</v>
       </c>
       <c r="G1" s="4">
-        <v>42853</v>
+        <v>42856</v>
       </c>
       <c r="H1" s="4">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="I1" s="4">
-        <v>42858</v>
-      </c>
-      <c r="J1" s="4">
         <v>42860</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1777,101 +1805,99 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5">
-        <f>SUM(C2:J2)</f>
+      <c r="J2" s="5">
+        <f>SUM(C2:I2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K9" si="0">SUM(C3:J3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="5">
+        <f>SUM(C3:I3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="5">
+        <f>SUM(C4:I4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="5">
+        <f>SUM(C5:I5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <f>B6</f>
-        <v>3</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="5">
+        <f>SUM(C6:I6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1880,18 +1906,17 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
+      <c r="J7" s="5">
+        <f>SUM(C7:I7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1900,141 +1925,130 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
+      <c r="J8" s="5">
+        <f>SUM(C8:I8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <f>SUM(C9:I9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5">
-        <f t="shared" ref="K10" si="1">SUM(C10:J10)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <f>SUM(C10:I10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="5">
         <f>SUM(B2:B10)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="5">
-        <f>B12-(SUM(C2:C10))</f>
-        <v>63</v>
+        <f>B12-(SUM(C2:C9))</f>
+        <v>59</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:J12" si="2">C12-(SUM(D2:D10))</f>
-        <v>61</v>
+        <f>C12-(SUM(D2:D9))</f>
+        <v>54</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f>D12-(SUM(E2:E9))</f>
+        <v>47</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f>E12-(SUM(F2:F9))</f>
+        <v>47</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f>F12-(SUM(G2:G9))</f>
+        <v>47</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f>G12-(SUM(H2:H9))</f>
+        <v>47</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f>H12-(SUM(I2:I9))</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="5">
         <f>SUM(B2:B10)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="7">
-        <f>B13-($B$13/8)</f>
-        <v>55.125</v>
+        <f>B13-($B$13/7)</f>
+        <v>51.428571428571431</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" ref="D13:I13" si="3">C13-($B$13/8)</f>
-        <v>47.25</v>
+        <f t="shared" ref="D13:I13" si="0">C13-($B$13/7)</f>
+        <v>42.857142857142861</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="3"/>
-        <v>39.375</v>
+        <f t="shared" si="0"/>
+        <v>34.285714285714292</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="3"/>
-        <v>31.5</v>
+        <f t="shared" si="0"/>
+        <v>25.714285714285722</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="3"/>
-        <v>23.625</v>
+        <f t="shared" si="0"/>
+        <v>17.142857142857153</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="3"/>
-        <v>15.75</v>
+        <f t="shared" si="0"/>
+        <v>8.5714285714285818</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="3"/>
-        <v>7.875</v>
-      </c>
-      <c r="J13" s="5">
-        <f>I13-($B$13/8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2044,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,15 +2086,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A12" si="0">A2+1</f>
+        <f>A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <f>'Burndown Chart'!B2</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -2088,151 +2102,171 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <f>'Burndown Chart'!B3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <f>'Burndown Chart'!B4</f>
-        <v>4</v>
+        <f>'Burndown Chart'!B7*0.75</f>
+        <v>16.5</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <f>'Burndown Chart'!B8</f>
-        <v>28</v>
+        <f>'Burndown Chart'!B6</f>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>A6+1</f>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <f>'Burndown Chart'!B7</f>
-        <v>7</v>
+        <f>'Burndown Chart'!B5</f>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <f>'Burndown Chart'!B4</f>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8">
-        <f>'Burndown Chart'!B6</f>
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <f>'Burndown Chart'!B5</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f>A9+1</f>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <f>'Burndown Chart'!B8/4</f>
-        <v>7</v>
+        <f>'Burndown Chart'!B7/4</f>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f>A10+1</f>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <f>'Burndown Chart'!B9</f>
-        <v>3</v>
+        <f>'Burndown Chart'!B8</f>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>A11+1</f>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C12">
-        <f>'Burndown Chart'!B10</f>
-        <v>2</v>
+        <f>'Burndown Chart'!B9</f>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>A13+1</f>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D9">
-    <sortCondition ref="B3:B9" customList="Critical,High,Medium,Low"/>
+  <sortState ref="A3:D13">
+    <sortCondition ref="B3:B13" customList="Critical,High,Medium,Low"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2240,52 +2274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,22 +2292,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2343,19 +2335,19 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,39 +2355,79 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2403,12 +2435,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,102 +2455,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,39 +2558,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2566,12 +2578,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,122 +2598,202 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2709,12 +2801,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,22 +2821,202 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -18,8 +18,10 @@
     <sheet name="24.04" sheetId="7" r:id="rId4"/>
     <sheet name="26.04" sheetId="9" r:id="rId5"/>
     <sheet name="28.04" sheetId="10" r:id="rId6"/>
+    <sheet name="01.05" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'01.05'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'22.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'24.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.04'!$A$1:$F$1</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -254,6 +256,18 @@
   </si>
   <si>
     <t>General documenntation of MVC</t>
+  </si>
+  <si>
+    <t>Singleton design pattern</t>
+  </si>
+  <si>
+    <t>Implement Singleton design pattern</t>
+  </si>
+  <si>
+    <t>Test Singleton design pattern</t>
+  </si>
+  <si>
+    <t>Document Singleton design pattern</t>
   </si>
 </sst>
 </file>
@@ -461,7 +475,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$12</c:f>
+              <c:f>'Burndown Chart'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,15 +536,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$12:$I$12</c:f>
+              <c:f>'Burndown Chart'!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54</c:v>
@@ -539,16 +553,16 @@
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +579,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$13</c:f>
+              <c:f>'Burndown Chart'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -626,30 +640,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$13:$I$13</c:f>
+              <c:f>'Burndown Chart'!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.428571428571431</c:v>
+                  <c:v>55.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.857142857142861</c:v>
+                  <c:v>46.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.285714285714292</c:v>
+                  <c:v>37.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.714285714285722</c:v>
+                  <c:v>27.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.142857142857153</c:v>
+                  <c:v>18.571428571428577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5714285714285818</c:v>
+                  <c:v>9.28571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1409,13 +1423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1741,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1820,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J11" si="0">SUM(C2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1827,7 +1841,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1848,7 +1862,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1869,7 +1883,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="5">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1883,13 +1897,15 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5">
-        <f>SUM(C6:I6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1902,13 +1918,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>16.5</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5">
-        <f>SUM(C7:I7)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>16.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1926,7 +1944,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1947,7 +1965,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1966,89 +1984,110 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5">
-        <f>SUM(C10:I10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5">
-        <f>SUM(B2:B10)</f>
-        <v>60</v>
-      </c>
-      <c r="C12" s="5">
-        <f>B12-(SUM(C2:C9))</f>
-        <v>59</v>
-      </c>
-      <c r="D12" s="5">
-        <f>C12-(SUM(D2:D9))</f>
-        <v>54</v>
-      </c>
-      <c r="E12" s="5">
-        <f>D12-(SUM(E2:E9))</f>
-        <v>47</v>
-      </c>
-      <c r="F12" s="5">
-        <f>E12-(SUM(F2:F9))</f>
-        <v>47</v>
-      </c>
-      <c r="G12" s="5">
-        <f>F12-(SUM(G2:G9))</f>
-        <v>47</v>
-      </c>
-      <c r="H12" s="5">
-        <f>G12-(SUM(H2:H9))</f>
-        <v>47</v>
-      </c>
-      <c r="I12" s="5">
-        <f>H12-(SUM(I2:I9))</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5">
-        <f>SUM(B2:B10)</f>
-        <v>60</v>
-      </c>
-      <c r="C13" s="7">
-        <f>B13-($B$13/7)</f>
-        <v>51.428571428571431</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" ref="D13:I13" si="0">C13-($B$13/7)</f>
-        <v>42.857142857142861</v>
-      </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>34.285714285714292</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>25.714285714285722</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>17.142857142857153</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="0"/>
-        <v>8.5714285714285818</v>
-      </c>
-      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUM(B2:B11)</f>
+        <v>65</v>
+      </c>
+      <c r="C13" s="5">
+        <f>B13-(SUM(C2:C11))</f>
+        <v>64</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">C13-(SUM(D2:D11))</f>
+        <v>54</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(B2:B11)</f>
+        <v>65</v>
+      </c>
+      <c r="C14" s="7">
+        <f>B14-($B$14/7)</f>
+        <v>55.714285714285715</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" ref="D14:I14" si="2">C14-($B$14/7)</f>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="2"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>27.857142857142861</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>18.571428571428577</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>9.28571428571429</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2061,7 +2100,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2125,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A14" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -2102,7 +2141,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -2118,7 +2157,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2134,7 +2173,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -2150,7 +2189,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -2166,7 +2205,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2182,19 +2221,23 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
+      <c r="C9">
+        <f>'Burndown Chart'!B11</f>
+        <v>5</v>
+      </c>
       <c r="D9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -2210,7 +2253,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -2226,7 +2269,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -2242,7 +2285,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -2254,7 +2297,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -2437,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,6 +2616,66 @@
         <v>24</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2583,7 +2686,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,7 +2776,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,7 +2909,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2976,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2996,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,6 +3120,49 @@
       </c>
       <c r="F10" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Document Singleton design pattern</t>
+  </si>
+  <si>
+    <t>Display triplist in date interval</t>
+  </si>
+  <si>
+    <t>Implement showing trips in given date interval</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$13</c:f>
+              <c:f>'Burndown Chart'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -536,24 +542,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$13:$I$13</c:f>
+              <c:f>'Burndown Chart'!$B$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25.5</c:v>
@@ -579,7 +585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$14</c:f>
+              <c:f>'Burndown Chart'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -640,30 +646,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$14:$I$14</c:f>
+              <c:f>'Burndown Chart'!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.714285714285715</c:v>
+                  <c:v>58.285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.428571428571431</c:v>
+                  <c:v>48.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.142857142857146</c:v>
+                  <c:v>38.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.857142857142861</c:v>
+                  <c:v>29.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.571428571428577</c:v>
+                  <c:v>19.428571428571423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.28571428571429</c:v>
+                  <c:v>9.71428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1423,13 +1429,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1755,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1826,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J11" si="0">SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J12" si="0">SUM(C2:I2)</f>
         <v>0</v>
       </c>
     </row>
@@ -2010,84 +2016,105 @@
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5">
-        <f>SUM(B2:B11)</f>
-        <v>65</v>
-      </c>
-      <c r="C13" s="5">
-        <f>B13-(SUM(C2:C11))</f>
-        <v>64</v>
-      </c>
-      <c r="D13" s="5">
-        <f t="shared" ref="D13:I13" si="1">C13-(SUM(D2:D11))</f>
-        <v>54</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B14" s="5">
+        <f>SUM(B2:B12)</f>
+        <v>68</v>
+      </c>
+      <c r="C14" s="5">
+        <f>B14-(SUM(C2:C12))</f>
+        <v>67</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:I14" si="1">C14-(SUM(D2:D12))</f>
+        <v>57</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="F13" s="5">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="1"/>
+        <v>28.5</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I14" s="5">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="I13" s="5">
-        <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5">
-        <f>SUM(B2:B11)</f>
-        <v>65</v>
-      </c>
-      <c r="C14" s="7">
-        <f>B14-($B$14/7)</f>
-        <v>55.714285714285715</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" ref="D14:I14" si="2">C14-($B$14/7)</f>
-        <v>46.428571428571431</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="B15" s="5">
+        <f>SUM(B2:B12)</f>
+        <v>68</v>
+      </c>
+      <c r="C15" s="7">
+        <f>B15-($B$15/7)</f>
+        <v>58.285714285714285</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" ref="D15:I15" si="2">C15-($B$15/7)</f>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="2"/>
-        <v>37.142857142857146</v>
-      </c>
-      <c r="F14" s="7">
+        <v>38.857142857142854</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="2"/>
-        <v>27.857142857142861</v>
-      </c>
-      <c r="G14" s="7">
+        <v>29.142857142857139</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
-        <v>18.571428571428577</v>
-      </c>
-      <c r="H14" s="7">
+        <v>19.428571428571423</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="2"/>
-        <v>9.28571428571429</v>
-      </c>
-      <c r="I14" s="7">
+        <v>9.71428571428571</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2100,7 +2127,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,6 +2317,10 @@
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+      <c r="C13">
+        <f>'Burndown Chart'!B12</f>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -3129,10 +3160,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,6 +3196,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Customer require to test observer</t>
-  </si>
-  <si>
     <t>Customer wants singleton design pattern</t>
   </si>
   <si>
@@ -274,6 +271,27 @@
   </si>
   <si>
     <t>Implement showing trips in given date interval</t>
+  </si>
+  <si>
+    <t>Junit test for proxy</t>
+  </si>
+  <si>
+    <t>Customer require to test proxy</t>
+  </si>
+  <si>
+    <t>Junit test for proxy design pattern</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Fix displaying trips in date interval in GUI</t>
+  </si>
+  <si>
+    <t>Finnish Client-Server documentation</t>
+  </si>
+  <si>
+    <t>Finnish MVC documentation</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$14</c:f>
+              <c:f>'Burndown Chart'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -542,7 +560,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$14:$I$14</c:f>
+              <c:f>'Burndown Chart'!$B$15:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -559,16 +577,16 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +603,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$15</c:f>
+              <c:f>'Burndown Chart'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -646,7 +664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$15:$I$15</c:f>
+              <c:f>'Burndown Chart'!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1429,13 +1447,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1761,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,13 +1844,13 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J12" si="0">SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J13" si="0">SUM(C2:I2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1919,20 +1937,20 @@
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="5">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1977,7 +1995,7 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -1996,7 +2014,7 @@
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -2017,7 +2035,7 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2037,84 +2055,103 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B14" s="5">
-        <f>SUM(B2:B12)</f>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUM(B2:B13)</f>
         <v>68</v>
       </c>
-      <c r="C14" s="5">
-        <f>B14-(SUM(C2:C12))</f>
+      <c r="C15" s="5">
+        <f>B15-(SUM(C2:C13))</f>
         <v>67</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:I14" si="1">C14-(SUM(D2:D12))</f>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:I15" si="1">C15-(SUM(D2:D13))</f>
         <v>57</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>28.5</v>
-      </c>
-      <c r="G14" s="5">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="H14" s="5">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-      <c r="I14" s="5">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="1"/>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
-        <f>SUM(B2:B12)</f>
+      <c r="B16" s="5">
+        <f>SUM(B2:B13)</f>
         <v>68</v>
       </c>
-      <c r="C15" s="7">
-        <f>B15-($B$15/7)</f>
+      <c r="C16" s="7">
+        <f>B16-($B$16/7)</f>
         <v>58.285714285714285</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" ref="D15:I15" si="2">C15-($B$15/7)</f>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16:I16" si="2">C16-($B$16/7)</f>
         <v>48.571428571428569</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <f t="shared" si="2"/>
         <v>38.857142857142854</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f t="shared" si="2"/>
         <v>29.142857142857139</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>19.428571428571423</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H16" s="7">
         <f t="shared" si="2"/>
         <v>9.71428571428571</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2127,7 +2164,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,8 +2228,8 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <f>'Burndown Chart'!B7*0.75</f>
-        <v>16.5</v>
+        <f>'Burndown Chart'!B7</f>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -2259,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,11 +2308,11 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <f>'Burndown Chart'!B7/4</f>
-        <v>5.5</v>
+        <f>'Burndown Chart'!B13</f>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,7 +2372,7 @@
         <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2441,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2481,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2564,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -2675,7 +2712,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -2695,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -2801,7 +2838,7 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -2841,13 +2878,13 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2918,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -2927,7 +2964,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2977,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,7 +3061,7 @@
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3124,7 +3161,7 @@
         <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -3150,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
@@ -3214,6 +3251,86 @@
       </c>
       <c r="F2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Façade design pattern</t>
   </si>
   <si>
-    <t>Remote observer d.p.</t>
-  </si>
-  <si>
     <t>MVC design pattern</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Not done</t>
-  </si>
-  <si>
     <t>In progress</t>
   </si>
   <si>
@@ -292,6 +286,18 @@
   </si>
   <si>
     <t>Finnish MVC documentation</t>
+  </si>
+  <si>
+    <t>Observer design pattern</t>
+  </si>
+  <si>
+    <t>Customer wants clean code without redundant methods and useless sysouts.</t>
+  </si>
+  <si>
+    <t>Clean code</t>
+  </si>
+  <si>
+    <t>Delete reduntant methods and sysouts, clean code</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$15</c:f>
+              <c:f>'Burndown Chart'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -560,33 +566,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$15:$I$15</c:f>
+              <c:f>'Burndown Chart'!$B$16:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +609,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$16</c:f>
+              <c:f>'Burndown Chart'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -664,30 +670,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$16:$I$16</c:f>
+              <c:f>'Burndown Chart'!$B$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.285714285714285</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.571428571428569</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.857142857142854</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.142857142857139</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.428571428571423</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.71428571428571</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1447,13 +1453,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1779,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,13 +1850,13 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J13" si="0">SUM(C2:I2)</f>
+        <f t="shared" ref="J2:J14" si="0">SUM(C2:I2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -1892,7 +1898,7 @@
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
@@ -1913,7 +1919,7 @@
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -1934,7 +1940,7 @@
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5">
         <v>18</v>
@@ -1955,7 +1961,7 @@
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5">
         <v>9</v>
@@ -1995,7 +2001,7 @@
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -2003,18 +2009,20 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5">
         <v>5</v>
@@ -2035,7 +2043,7 @@
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2056,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
@@ -2065,93 +2073,114 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5">
-        <f>SUM(B2:B13)</f>
-        <v>68</v>
-      </c>
-      <c r="C15" s="5">
-        <f>B15-(SUM(C2:C13))</f>
-        <v>67</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:I15" si="1">C15-(SUM(D2:D13))</f>
-        <v>57</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="B16" s="5">
+        <f>SUM(B2:B14)</f>
+        <v>70</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16-(SUM(C2:C14))</f>
+        <v>69</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:I16" si="1">C16-(SUM(D2:D14))</f>
+        <v>59</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUM(B2:B14)</f>
+        <v>70</v>
+      </c>
+      <c r="C17" s="7">
+        <f>B17-($B$17/7)</f>
+        <v>60</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" ref="D17:I17" si="2">C17-($B$17/7)</f>
         <v>50</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I15" s="5">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5">
-        <f>SUM(B2:B13)</f>
-        <v>68</v>
-      </c>
-      <c r="C16" s="7">
-        <f>B16-($B$16/7)</f>
-        <v>58.285714285714285</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" ref="D16:I16" si="2">C16-($B$16/7)</f>
-        <v>48.571428571428569</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>38.857142857142854</v>
-      </c>
-      <c r="F16" s="7">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>29.142857142857139</v>
-      </c>
-      <c r="G16" s="7">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>19.428571428571423</v>
-      </c>
-      <c r="H16" s="7">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>9.71428571428571</v>
-      </c>
-      <c r="I16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2161,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,11 +2218,11 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A14" si="0">A2+1</f>
+        <f t="shared" ref="A3:A15" si="0">A2+1</f>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <f>'Burndown Chart'!B2</f>
@@ -2209,14 +2238,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <f>'Burndown Chart'!B3</f>
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2225,14 +2254,14 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f>'Burndown Chart'!B7</f>
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,14 +2270,14 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <f>'Burndown Chart'!B6</f>
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,14 +2286,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <f>'Burndown Chart'!B5</f>
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2273,14 +2302,14 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <f>'Burndown Chart'!B4</f>
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,14 +2318,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <f>'Burndown Chart'!B11</f>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,14 +2334,14 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <f>'Burndown Chart'!B13</f>
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,14 +2350,14 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f>'Burndown Chart'!B8</f>
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2337,14 +2366,14 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <f>'Burndown Chart'!B9</f>
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <f>'Burndown Chart'!B12</f>
@@ -2369,10 +2398,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <f>'Burndown Chart'!B10</f>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <f>'Burndown Chart'!B14</f>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2403,22 +2452,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,16 +2478,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2449,16 +2498,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2469,16 +2518,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,16 +2538,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,16 +2558,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2529,16 +2578,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2600,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2566,22 +2615,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2592,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,16 +2661,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,16 +2681,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,16 +2701,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,16 +2721,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,16 +2741,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,16 +2761,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2732,16 +2781,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2803,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,22 +2818,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,16 +2844,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,16 +2864,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,16 +2884,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,16 +2904,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,16 +2924,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,16 +2944,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,16 +2964,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,16 +2984,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,16 +3004,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3026,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,22 +3041,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,16 +3087,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,16 +3107,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3078,16 +3127,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,16 +3147,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,16 +3167,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,16 +3187,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +3207,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,16 +3227,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3197,10 +3246,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,22 +3264,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,16 +3290,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,16 +3310,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3281,16 +3330,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,16 +3350,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,16 +3370,36 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -586,13 +586,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,12 +2094,14 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2131,15 +2133,15 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3248,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum.xlsx
+++ b/Documentation/Scrum.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="89">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>Delete reduntant methods and sysouts, clean code</t>
+  </si>
+  <si>
+    <t>Krzysztof, Marek</t>
+  </si>
+  <si>
+    <t>Martin, Stela</t>
   </si>
 </sst>
 </file>
@@ -586,13 +592,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,12 +1852,14 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>8</v>
+      </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
         <f t="shared" ref="J2:J14" si="0">SUM(C2:I2)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2133,15 +2141,15 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2602,7 +2610,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2813,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,7 +3036,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,14 +3259,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -3315,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3355,13 +3363,13 @@
         <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,7 +3383,7 @@
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>2</v>
